--- a/PythonChallenge/PyBank/jorge_table.xlsx
+++ b/PythonChallenge/PyBank/jorge_table.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>total_months</t>
+    <t>[' Feb-2012', 1926159.0]</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Average  Change</t>
-  </si>
-  <si>
-    <t>Greatest Increase in Profit</t>
-  </si>
-  <si>
-    <t>Greatest Decrease in Profit</t>
+    <t>[' Sep-2013', -2196167.0]</t>
   </si>
 </sst>
 </file>
@@ -386,44 +377,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>86</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>38382578</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
         <v>-2315.117647058823</v>
       </c>
-      <c r="D2">
-        <v>1926159</v>
-      </c>
-      <c r="E2">
-        <v>-2196167</v>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PythonChallenge/PyBank/jorge_table.xlsx
+++ b/PythonChallenge/PyBank/jorge_table.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>[' Feb-2012', 1926159.0]</t>
+    <t>$ 38,382,578</t>
   </si>
   <si>
-    <t>[' Sep-2013', -2196167.0]</t>
+    <t>$ -2315</t>
+  </si>
+  <si>
+    <t>[' Feb-2012', '$ 1,926,159.0']</t>
+  </si>
+  <si>
+    <t>[' Sep-2013', '$ -2,196,167.0']</t>
   </si>
 </sst>
 </file>
@@ -394,23 +400,23 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3">
-        <v>38382578</v>
+      <c r="A3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4">
-        <v>-2315.117647058823</v>
+      <c r="A4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
